--- a/接口文档/店铺api/店铺接口_平台端.xlsx
+++ b/接口文档/店铺api/店铺接口_平台端.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="68">
   <si>
     <t>序号</t>
   </si>
@@ -240,6 +240,14 @@
       </rPr>
       <t>d</t>
     </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkedDetail</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>checked</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +303,7 @@
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -529,6 +537,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -536,24 +562,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1117,7 +1125,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1134,34 +1142,34 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="20" t="s">
@@ -1182,7 +1190,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="8" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -1196,7 +1204,7 @@
     </row>
     <row r="6" spans="1:5" ht="17.25" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -1215,12 +1223,12 @@
       <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="2" t="s">
@@ -1635,34 +1643,34 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="15">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="20" t="s">
@@ -1703,12 +1711,12 @@
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" ht="16.5">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" spans="1:5" ht="16.5">
       <c r="B9" s="13" t="s">
